--- a/InputData/io-model/DLIM/Domestic Leontief Inverse Matrix.xlsx
+++ b/InputData/io-model/DLIM/Domestic Leontief Inverse Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\io-model\DLIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{840D1ED0-3A77-4C37-9903-3B104B5FDC3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BE3385-2C73-4D0A-9687-B7ED242AFA3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4155" yWindow="2805" windowWidth="21825" windowHeight="13815" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -959,7 +959,7 @@
   <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1240,8 +1240,11 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{0CB9ECC5-998B-4D92-933B-373913D5045A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1250,7 +1253,7 @@
   <dimension ref="A1:CH87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31179,7 +31182,7 @@
   <dimension ref="A1:AR45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38941,7 +38944,7 @@
   <dimension ref="A1:AR45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44858,7 +44861,7 @@
   <dimension ref="A1:AQ43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
